--- a/Resultados-scp.xlsx
+++ b/Resultados-scp.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amigo\Documents\Documentos FCFM\6to Semestre\Investigación de Operaciones\Project-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgarz\OneDrive\Escritorio\Facultad\Semestre 6\Investigación de Operaciones\Proyecto\Examen 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D4D1-F4B7-4240-AD74-7645E497345F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28765D3F-5444-4298-B40D-5416C5763740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3180" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Archivo</t>
   </si>
@@ -253,9 +254,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,9 +546,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +556,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,13 +578,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +626,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1091,7 +1094,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1210,19 +1213,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4011747837066602</c:v>
+                  <c:v>3.2700459999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8439378738403303</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.000000000">
-                  <c:v>6.8271796703338596</c:v>
+                  <c:v>7.3913909999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5649300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5361356735229403</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000000000">
-                  <c:v>1.61960124969482</c:v>
+                  <c:v>6.6821419999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.983679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,7 +1743,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1858,20 +1861,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0.000000000">
-                  <c:v>1.16021800041198</c:v>
+                <c:pt idx="0">
+                  <c:v>1.256567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42415642738342202</c:v>
+                  <c:v>0.41819099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1229262351989699</c:v>
+                  <c:v>1.1929970000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64069747924804599</c:v>
+                  <c:v>0.75890400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2863688468933101</c:v>
+                  <c:v>1.5198020000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,7 +2117,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2389,7 +2392,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2642,28 +2645,28 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.7924442291259652E-2</c:v>
+                  <c:v>0.12405549999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12589089870452841</c:v>
+                  <c:v>0.16743130000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8367304801940898</c:v>
+                  <c:v>1.4035426000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3700045108795147</c:v>
+                  <c:v>1.8617045999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0576159954070983</c:v>
+                  <c:v>3.6825307999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5299090862274141</c:v>
+                  <c:v>3.9357814000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6456058502197219</c:v>
+                  <c:v>5.1784375999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92687339782714562</c:v>
+                  <c:v>1.0292922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,7 +2914,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3577,7 +3580,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3711,34 +3714,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.3705701828002902E-2</c:v>
+                  <c:v>6.3574000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6618452072143499E-2</c:v>
+                  <c:v>7.6013999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6622266769409103E-2</c:v>
+                  <c:v>8.6418999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.102313995361328</c:v>
+                  <c:v>0.14403199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3506355285644503E-2</c:v>
+                  <c:v>7.6488E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.83402729034423E-2</c:v>
+                  <c:v>0.133107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8536281585693304E-2</c:v>
+                  <c:v>9.1742000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.119197607040405</c:v>
+                  <c:v>0.30693799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.117735385894775</c:v>
+                  <c:v>0.17482600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2668104171752902E-2</c:v>
+                  <c:v>8.7415000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4281,7 +4284,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4415,34 +4418,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.186277866363525</c:v>
+                  <c:v>0.248332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.199661254882812</c:v>
+                  <c:v>0.27713599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0590982437133699E-2</c:v>
+                  <c:v>0.11125400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.130665063858032</c:v>
+                  <c:v>0.17283899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.118210315704345</c:v>
+                  <c:v>0.152974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.111545324325561</c:v>
+                  <c:v>0.116776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13707709312438901</c:v>
+                  <c:v>0.204623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.148998022079467</c:v>
+                  <c:v>0.17979500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.24432373046875E-2</c:v>
+                  <c:v>0.101315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3439826965332003E-2</c:v>
+                  <c:v>0.10926900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +4993,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5114,19 +5117,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54275870323181097</c:v>
+                  <c:v>1.4452959999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.54860496520996</c:v>
+                  <c:v>2.496073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75195097923278797</c:v>
+                  <c:v>0.90492300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12615156173705999</c:v>
+                  <c:v>0.18277199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2141861915588299</c:v>
+                  <c:v>1.9886490000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5639,7 +5642,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5755,22 +5758,22 @@
             <c:numRef>
               <c:f>Hoja1!$C$31:$C$35</c:f>
               <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2.43465900421142</c:v>
+                <c:pt idx="0">
+                  <c:v>3.442882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1694357395172101</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.65390372276306</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.34170579910278298</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.25031828880309998</c:v>
+                  <c:v>2.8111280000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2598419999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44501299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34965800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6283,7 +6286,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6402,19 +6405,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3028488159179599</c:v>
+                  <c:v>3.2521659999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3405845165252601</c:v>
+                  <c:v>4.2613890000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8857238292694001</c:v>
+                  <c:v>2.50048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6845583915710396</c:v>
+                  <c:v>5.8427769999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0743644237518302</c:v>
+                  <c:v>2.5558420000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6927,7 +6930,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7046,19 +7049,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7276940345764098</c:v>
+                  <c:v>2.2171210000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3634271621704102</c:v>
+                  <c:v>3.6117530000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4116768836975098</c:v>
+                  <c:v>5.6679599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0895605087280202</c:v>
+                  <c:v>5.6133189999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0571868419647199</c:v>
+                  <c:v>2.5687540000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14159,11 +14162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -14178,33 +14181,33 @@
         <v>67</v>
       </c>
       <c r="C1" s="27"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -14212,16 +14215,16 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>4.3705701828002902E-2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="29">
+        <v>6.3574000000000006E-2</v>
+      </c>
+      <c r="D6" s="29">
         <v>429</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="29">
         <v>429</v>
       </c>
       <c r="F6" s="2" t="b">
@@ -14230,16 +14233,16 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>5.6618452072143499E-2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="29">
+        <v>7.6013999999999998E-2</v>
+      </c>
+      <c r="D7" s="29">
         <v>512</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="29">
         <v>512</v>
       </c>
       <c r="F7" s="2" t="b">
@@ -14248,16 +14251,16 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>5.6622266769409103E-2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="29">
+        <v>8.6418999999999996E-2</v>
+      </c>
+      <c r="D8" s="29">
         <v>516</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="29">
         <v>516</v>
       </c>
       <c r="F8" s="2" t="b">
@@ -14266,16 +14269,16 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.102313995361328</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="29">
+        <v>0.14403199999999999</v>
+      </c>
+      <c r="D9" s="29">
         <v>494</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="29">
         <v>494</v>
       </c>
       <c r="F9" s="2" t="b">
@@ -14284,16 +14287,16 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>7.3506355285644503E-2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="29">
+        <v>7.6488E-2</v>
+      </c>
+      <c r="D10" s="29">
         <v>512</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="29">
         <v>512</v>
       </c>
       <c r="F10" s="2" t="b">
@@ -14302,16 +14305,16 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>9.83402729034423E-2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="29">
+        <v>0.133107</v>
+      </c>
+      <c r="D11" s="29">
         <v>560</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="29">
         <v>560</v>
       </c>
       <c r="F11" s="2" t="b">
@@ -14320,16 +14323,16 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>6.8536281585693304E-2</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="29">
+        <v>9.1742000000000004E-2</v>
+      </c>
+      <c r="D12" s="29">
         <v>430</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="29">
         <v>430</v>
       </c>
       <c r="F12" s="2" t="b">
@@ -14338,16 +14341,16 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.119197607040405</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="29">
+        <v>0.30693799999999999</v>
+      </c>
+      <c r="D13" s="29">
         <v>492</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="29">
         <v>492</v>
       </c>
       <c r="F13" s="2" t="b">
@@ -14356,16 +14359,16 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.117735385894775</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="29">
+        <v>0.17482600000000001</v>
+      </c>
+      <c r="D14" s="29">
         <v>641</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="29">
         <v>641</v>
       </c>
       <c r="F14" s="2" t="b">
@@ -14374,16 +14377,16 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
-        <v>4.2668104171752902E-2</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="29">
+        <v>8.7415000000000007E-2</v>
+      </c>
+      <c r="D15" s="29">
         <v>514</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="29">
         <v>514</v>
       </c>
       <c r="F15" s="2" t="b">
@@ -14392,16 +14395,16 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.186277866363525</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="29">
+        <v>0.248332</v>
+      </c>
+      <c r="D16" s="29">
         <v>253</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="29">
         <v>253</v>
       </c>
       <c r="F16" s="2" t="b">
@@ -14410,16 +14413,16 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.199661254882812</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="29">
+        <v>0.27713599999999999</v>
+      </c>
+      <c r="D17" s="29">
         <v>302</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="29">
         <v>302</v>
       </c>
       <c r="F17" s="2" t="b">
@@ -14428,16 +14431,16 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
-        <v>6.0590982437133699E-2</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="29">
+        <v>0.11125400000000001</v>
+      </c>
+      <c r="D18" s="29">
         <v>226</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="29">
         <v>226</v>
       </c>
       <c r="F18" s="2" t="b">
@@ -14446,16 +14449,16 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.130665063858032</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="29">
+        <v>0.17283899999999999</v>
+      </c>
+      <c r="D19" s="29">
         <v>242</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="29">
         <v>242</v>
       </c>
       <c r="F19" s="2" t="b">
@@ -14464,16 +14467,16 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.118210315704345</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="29">
+        <v>0.152974</v>
+      </c>
+      <c r="D20" s="29">
         <v>211</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="29">
         <v>211</v>
       </c>
       <c r="F20" s="2" t="b">
@@ -14482,16 +14485,16 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>0.111545324325561</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="29">
+        <v>0.116776</v>
+      </c>
+      <c r="D21" s="29">
         <v>213</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="29">
         <v>213</v>
       </c>
       <c r="F21" s="2" t="b">
@@ -14500,16 +14503,16 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.13707709312438901</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="29">
+        <v>0.204623</v>
+      </c>
+      <c r="D22" s="29">
         <v>293</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="29">
         <v>293</v>
       </c>
       <c r="F22" s="2" t="b">
@@ -14518,16 +14521,16 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.148998022079467</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="29">
+        <v>0.17979500000000001</v>
+      </c>
+      <c r="D23" s="29">
         <v>288</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="29">
         <v>288</v>
       </c>
       <c r="F23" s="2" t="b">
@@ -14536,16 +14539,16 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
-        <v>8.24432373046875E-2</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="29">
+        <v>0.101315</v>
+      </c>
+      <c r="D24" s="29">
         <v>279</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="29">
         <v>279</v>
       </c>
       <c r="F24" s="2" t="b">
@@ -14554,16 +14557,16 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2">
-        <v>8.3439826965332003E-2</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="29">
+        <v>0.10926900000000001</v>
+      </c>
+      <c r="D25" s="29">
         <v>265</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="29">
         <v>265</v>
       </c>
       <c r="F25" s="2" t="b">
@@ -14572,16 +14575,16 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.54275870323181097</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="29">
+        <v>1.4452959999999999</v>
+      </c>
+      <c r="D26" s="29">
         <v>138</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="29">
         <v>138</v>
       </c>
       <c r="F26" s="2" t="b">
@@ -14590,16 +14593,16 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.54860496520996</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="29">
+        <v>2.496073</v>
+      </c>
+      <c r="D27" s="29">
         <v>146</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="29">
         <v>146</v>
       </c>
       <c r="F27" s="2" t="b">
@@ -14608,16 +14611,16 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.75195097923278797</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="29">
+        <v>0.90492300000000003</v>
+      </c>
+      <c r="D28" s="29">
         <v>145</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="29">
         <v>145</v>
       </c>
       <c r="F28" s="2" t="b">
@@ -14626,16 +14629,16 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.12615156173705999</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="29">
+        <v>0.18277199999999999</v>
+      </c>
+      <c r="D29" s="29">
         <v>131</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="29">
         <v>131</v>
       </c>
       <c r="F29" s="2" t="b">
@@ -14644,16 +14647,16 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
-        <v>1.2141861915588299</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="29">
+        <v>1.9886490000000001</v>
+      </c>
+      <c r="D30" s="29">
         <v>161</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="29">
         <v>161</v>
       </c>
       <c r="F30" s="2" t="b">
@@ -14662,16 +14665,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2">
-        <v>2.43465900421142</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="29">
+        <v>3.442882</v>
+      </c>
+      <c r="D31" s="29">
         <v>253</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="29">
         <v>253</v>
       </c>
       <c r="F31" s="2" t="b">
@@ -14680,16 +14683,16 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="12">
-        <v>2.1694357395172101</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="29">
+        <v>2.8111280000000001</v>
+      </c>
+      <c r="D32" s="29">
         <v>252</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="29">
         <v>252</v>
       </c>
       <c r="F32" s="2" t="b">
@@ -14698,16 +14701,16 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2">
-        <v>1.65390372276306</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="29">
+        <v>2.2598419999999999</v>
+      </c>
+      <c r="D33" s="29">
         <v>232</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="29">
         <v>232</v>
       </c>
       <c r="F33" s="2" t="b">
@@ -14716,16 +14719,16 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2">
-        <v>0.34170579910278298</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="29">
+        <v>0.44501299999999999</v>
+      </c>
+      <c r="D34" s="29">
         <v>234</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="29">
         <v>234</v>
       </c>
       <c r="F34" s="2" t="b">
@@ -14734,16 +14737,16 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
-        <v>0.25031828880309998</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="29">
+        <v>0.34965800000000002</v>
+      </c>
+      <c r="D35" s="29">
         <v>236</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="29">
         <v>236</v>
       </c>
       <c r="F35" s="2" t="b">
@@ -14752,16 +14755,16 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2">
-        <v>2.3028488159179599</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="29">
+        <v>3.2521659999999999</v>
+      </c>
+      <c r="D36" s="29">
         <v>69</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="29">
         <v>69</v>
       </c>
       <c r="F36" s="2" t="b">
@@ -14770,16 +14773,16 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2">
-        <v>3.3405845165252601</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="29">
+        <v>4.2613890000000003</v>
+      </c>
+      <c r="D37" s="29">
         <v>76</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="29">
         <v>76</v>
       </c>
       <c r="F37" s="2" t="b">
@@ -14788,16 +14791,16 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2">
-        <v>1.8857238292694001</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="29">
+        <v>2.50048</v>
+      </c>
+      <c r="D38" s="29">
         <v>80</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="29">
         <v>80</v>
       </c>
       <c r="F38" s="2" t="b">
@@ -14806,16 +14809,16 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2">
-        <v>4.6845583915710396</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="29">
+        <v>5.8427769999999999</v>
+      </c>
+      <c r="D39" s="29">
         <v>79</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="29">
         <v>79</v>
       </c>
       <c r="F39" s="2" t="b">
@@ -14824,16 +14827,16 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2">
-        <v>3.0743644237518302</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="29">
+        <v>2.5558420000000002</v>
+      </c>
+      <c r="D40" s="29">
         <v>72</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="29">
         <v>72</v>
       </c>
       <c r="F40" s="2" t="b">
@@ -14842,16 +14845,16 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2">
-        <v>2.7276940345764098</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="29">
+        <v>2.2171210000000001</v>
+      </c>
+      <c r="D41" s="29">
         <v>227</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="29">
         <v>227</v>
       </c>
       <c r="F41" s="2" t="b">
@@ -14860,16 +14863,16 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2">
-        <v>3.3634271621704102</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="29">
+        <v>3.6117530000000002</v>
+      </c>
+      <c r="D42" s="29">
         <v>219</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="29">
         <v>219</v>
       </c>
       <c r="F42" s="2" t="b">
@@ -14878,16 +14881,16 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2">
-        <v>5.4116768836975098</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="29">
+        <v>5.6679599999999999</v>
+      </c>
+      <c r="D43" s="29">
         <v>243</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="29">
         <v>243</v>
       </c>
       <c r="F43" s="2" t="b">
@@ -14896,16 +14899,16 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2">
-        <v>4.0895605087280202</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="29">
+        <v>5.6133189999999997</v>
+      </c>
+      <c r="D44" s="29">
         <v>219</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="29">
         <v>219</v>
       </c>
       <c r="F44" s="2" t="b">
@@ -14914,16 +14917,16 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2">
-        <v>2.0571868419647199</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="29">
+        <v>2.5687540000000002</v>
+      </c>
+      <c r="D45" s="29">
         <v>215</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="29">
         <v>215</v>
       </c>
       <c r="F45" s="2" t="b">
@@ -14932,16 +14935,16 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2">
-        <v>3.4011747837066602</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="29">
+        <v>3.2700459999999998</v>
+      </c>
+      <c r="D46" s="29">
         <v>60</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="29">
         <v>60</v>
       </c>
       <c r="F46" s="2" t="b">
@@ -14950,16 +14953,16 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2">
-        <v>9.8439378738403303</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="29">
+        <v>7.3913909999999996</v>
+      </c>
+      <c r="D47" s="29">
         <v>66</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="29">
         <v>66</v>
       </c>
       <c r="F47" s="2" t="b">
@@ -14968,16 +14971,16 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="12">
-        <v>6.8271796703338596</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="29">
+        <v>6.5649300000000004</v>
+      </c>
+      <c r="D48" s="29">
         <v>72</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="29">
         <v>72</v>
       </c>
       <c r="F48" s="2" t="b">
@@ -14986,16 +14989,16 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2">
-        <v>6.5361356735229403</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="29">
+        <v>6.6821419999999998</v>
+      </c>
+      <c r="D49" s="29">
         <v>62</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="29">
         <v>62</v>
       </c>
       <c r="F49" s="2" t="b">
@@ -15004,16 +15007,16 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="12">
-        <v>1.61960124969482</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C50" s="29">
+        <v>1.983679</v>
+      </c>
+      <c r="D50" s="29">
         <v>61</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="29">
         <v>61</v>
       </c>
       <c r="F50" s="2" t="b">
@@ -15022,16 +15025,16 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="12">
-        <v>1.16021800041198</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="29">
+        <v>1.256567</v>
+      </c>
+      <c r="D51" s="29">
         <v>5</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="29">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="b">
@@ -15040,16 +15043,16 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
-        <v>0.42415642738342202</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C52" s="29">
+        <v>0.41819099999999998</v>
+      </c>
+      <c r="D52" s="29">
         <v>5</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="29">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="b">
@@ -15058,16 +15061,16 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2">
-        <v>1.1229262351989699</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="29">
+        <v>1.1929970000000001</v>
+      </c>
+      <c r="D53" s="29">
         <v>5</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="29">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="b">
@@ -15076,16 +15079,16 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2">
-        <v>0.64069747924804599</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="29">
+        <v>0.75890400000000002</v>
+      </c>
+      <c r="D54" s="29">
         <v>5</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="29">
         <v>5</v>
       </c>
       <c r="F54" s="2" t="b">
@@ -15094,16 +15097,16 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="2">
-        <v>1.2863688468933101</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C55" s="29">
+        <v>1.5198020000000001</v>
+      </c>
+      <c r="D55" s="29">
         <v>5</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="29">
         <v>5</v>
       </c>
       <c r="F55" s="2" t="b">
@@ -15113,32 +15116,32 @@
     </row>
     <row r="57" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="I58" s="21" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="I58" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="24"/>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="H59" s="17" t="s">
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="H59" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>4</v>
       </c>
       <c r="J59" s="8">
@@ -15164,13 +15167,13 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="H60" s="18" t="s">
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="H60" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="13">
         <f>AVERAGE(D$6:D$15)</f>
         <v>510</v>
       </c>
@@ -15204,53 +15207,53 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="H61" s="19" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="H61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <f>AVERAGE(C$6:C$15)</f>
-        <v>7.7924442291259652E-2</v>
+        <v>0.12405549999999999</v>
       </c>
       <c r="J61" s="10">
         <f>AVERAGE(C$16:C$25)</f>
-        <v>0.12589089870452841</v>
+        <v>0.16743130000000001</v>
       </c>
       <c r="K61" s="10">
         <f>AVERAGE(C$26:C$30)</f>
-        <v>0.8367304801940898</v>
+        <v>1.4035426000000002</v>
       </c>
       <c r="L61" s="10">
         <f>AVERAGE(C$31:C$35)</f>
-        <v>1.3700045108795147</v>
+        <v>1.8617045999999999</v>
       </c>
       <c r="M61" s="10">
         <f>AVERAGE(C$36:C$40)</f>
-        <v>3.0576159954070983</v>
+        <v>3.6825307999999999</v>
       </c>
       <c r="N61" s="10">
         <f>AVERAGE(C$41:C$45)</f>
-        <v>3.5299090862274141</v>
+        <v>3.9357814000000007</v>
       </c>
       <c r="O61" s="10">
         <f>AVERAGE(C$46:C$50)</f>
-        <v>5.6456058502197219</v>
+        <v>5.1784375999999996</v>
       </c>
       <c r="P61" s="11">
         <f>AVERAGE(C$51:C$55)</f>
-        <v>0.92687339782714562</v>
+        <v>1.0292922</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="H62" s="20" t="s">
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="H62" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="15">
         <f>COUNTIF(F$6:F$15,TRUE)</f>
         <v>10</v>
       </c>
@@ -15284,39 +15287,39 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15344,4 +15347,569 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F899CB2-4CB7-43AA-9BB2-27EA56B80CDF}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C1:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>6.3574000000000006E-2</v>
+      </c>
+      <c r="C1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7.6013999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8.6418999999999996E-2</v>
+      </c>
+      <c r="C3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.14403199999999999</v>
+      </c>
+      <c r="C4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7.6488E-2</v>
+      </c>
+      <c r="C5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.133107</v>
+      </c>
+      <c r="C6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>9.1742000000000004E-2</v>
+      </c>
+      <c r="C7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.30693799999999999</v>
+      </c>
+      <c r="C8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.17482600000000001</v>
+      </c>
+      <c r="C9">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>8.7415000000000007E-2</v>
+      </c>
+      <c r="C10">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.248332</v>
+      </c>
+      <c r="C11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.27713599999999999</v>
+      </c>
+      <c r="C12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.11125400000000001</v>
+      </c>
+      <c r="C13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.17283899999999999</v>
+      </c>
+      <c r="C14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.152974</v>
+      </c>
+      <c r="C15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.116776</v>
+      </c>
+      <c r="C16">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.204623</v>
+      </c>
+      <c r="C17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0.17979500000000001</v>
+      </c>
+      <c r="C18">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.101315</v>
+      </c>
+      <c r="C19">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.10926900000000001</v>
+      </c>
+      <c r="C20">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1.4452959999999999</v>
+      </c>
+      <c r="C21">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2.496073</v>
+      </c>
+      <c r="C22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.90492300000000003</v>
+      </c>
+      <c r="C23">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.18277199999999999</v>
+      </c>
+      <c r="C24">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1.9886490000000001</v>
+      </c>
+      <c r="C25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3.442882</v>
+      </c>
+      <c r="C26">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2.8111280000000001</v>
+      </c>
+      <c r="C27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2.2598419999999999</v>
+      </c>
+      <c r="C28">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.44501299999999999</v>
+      </c>
+      <c r="C29">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0.34965800000000002</v>
+      </c>
+      <c r="C30">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3.2521659999999999</v>
+      </c>
+      <c r="C31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4.2613890000000003</v>
+      </c>
+      <c r="C32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2.50048</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>5.8427769999999999</v>
+      </c>
+      <c r="C34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>2.5558420000000002</v>
+      </c>
+      <c r="C35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2.2171210000000001</v>
+      </c>
+      <c r="C36">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>3.6117530000000002</v>
+      </c>
+      <c r="C37">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>5.6679599999999999</v>
+      </c>
+      <c r="C38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>5.6133189999999997</v>
+      </c>
+      <c r="C39">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2.5687540000000002</v>
+      </c>
+      <c r="C40">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>3.2700459999999998</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>7.3913909999999996</v>
+      </c>
+      <c r="C42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>6.5649300000000004</v>
+      </c>
+      <c r="C43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>6.6821419999999998</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>1.983679</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>1.256567</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.41819099999999998</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>1.1929970000000001</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.75890400000000002</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>1.5198020000000001</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>